--- a/tests/testthat/fixtures/ex3/tables/irt_poly_all.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/irt_poly_all.xlsx
@@ -220,28 +220,28 @@
     <t xml:space="preserve">-0.19</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78 (0.072)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90 (0.092)</t>
+    <t xml:space="preserve">0.75 (0.062)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92 (0.092)</t>
   </si>
   <si>
     <t xml:space="preserve">-1.01 (0.092)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09 (0.122)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.82 (0.142)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.27</t>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39 (0.122)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.03 (0.142)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.36</t>
   </si>
   <si>
     <t xml:space="preserve">0.63 (0.12)</t>
@@ -628,13 +628,13 @@
         <v>2100</v>
       </c>
       <c r="D2" t="n">
-        <v>1979</v>
+        <v>1985</v>
       </c>
       <c r="E2" t="n">
-        <v>81.1</v>
+        <v>81.21</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.85</v>
+        <v>-1.86</v>
       </c>
       <c r="G2" t="n">
         <v>0.06</v>
@@ -646,13 +646,13 @@
         <v>0.6</v>
       </c>
       <c r="J2" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="K2" t="n">
         <v>0.06</v>
       </c>
       <c r="L2" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="3">
@@ -666,7 +666,7 @@
         <v>2100</v>
       </c>
       <c r="D3" t="n">
-        <v>1934</v>
+        <v>1953</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
@@ -679,16 +679,16 @@
         <v>0.93</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.62</v>
+        <v>-1.74</v>
       </c>
       <c r="J3" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="K3" t="n">
         <v>0.06</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -702,13 +702,13 @@
         <v>2100</v>
       </c>
       <c r="D4" t="n">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="E4" t="n">
-        <v>49.92</v>
+        <v>49.73</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
         <v>0.05</v>
@@ -717,16 +717,16 @@
         <v>1.02</v>
       </c>
       <c r="I4" t="n">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="J4" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="K4" t="n">
         <v>0.05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="5">
@@ -740,29 +740,29 @@
         <v>2100</v>
       </c>
       <c r="D5" t="n">
-        <v>1693</v>
+        <v>1716</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="G5" t="n">
         <v>0.03</v>
       </c>
       <c r="H5" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.72</v>
+        <v>-2.34</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="K5" t="n">
         <v>0.06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6">
@@ -776,22 +776,22 @@
         <v>2100</v>
       </c>
       <c r="D6" t="n">
-        <v>1350</v>
+        <v>1379</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>18.56</v>
       </c>
       <c r="F6" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="G6" t="n">
         <v>0.08</v>
       </c>
       <c r="H6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I6" t="n">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="J6" t="n">
         <v>0.19</v>
@@ -800,7 +800,7 @@
         <v>0.06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="7">
@@ -811,34 +811,34 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D7" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E7" t="n">
-        <v>75.76</v>
+        <v>75.95</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.67</v>
+        <v>-1.68</v>
       </c>
       <c r="G7" t="n">
         <v>0.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8">
@@ -849,13 +849,13 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D8" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E8" t="n">
-        <v>72.63</v>
+        <v>72.52</v>
       </c>
       <c r="F8" t="n">
         <v>-1.47</v>
@@ -867,10 +867,10 @@
         <v>1.08</v>
       </c>
       <c r="I8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="K8" t="n">
         <v>0.04</v>
@@ -887,16 +887,16 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D9" t="n">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="E9" t="n">
-        <v>65.26</v>
+        <v>64.91</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.04</v>
+        <v>-1.03</v>
       </c>
       <c r="G9" t="n">
         <v>0.09</v>
@@ -905,16 +905,16 @@
         <v>1.02</v>
       </c>
       <c r="I9" t="n">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="J9" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="K9" t="n">
         <v>0.04</v>
       </c>
       <c r="L9" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="10">
@@ -925,16 +925,16 @@
         <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D10" t="n">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="E10" t="n">
-        <v>62.99</v>
+        <v>62.35</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.91</v>
+        <v>-0.88</v>
       </c>
       <c r="G10" t="n">
         <v>0.09</v>
@@ -943,16 +943,16 @@
         <v>1.05</v>
       </c>
       <c r="I10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="J10" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="K10" t="n">
         <v>0.06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="11">
@@ -963,14 +963,14 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D11" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>-1.25</v>
+        <v>-1.24</v>
       </c>
       <c r="G11" t="n">
         <v>0.05</v>
@@ -979,7 +979,7 @@
         <v>0.94</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.72</v>
+        <v>-0.8</v>
       </c>
       <c r="J11" t="n">
         <v>0.36</v>
@@ -988,7 +988,7 @@
         <v>0.04</v>
       </c>
       <c r="L11" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="12">
@@ -999,34 +999,34 @@
         <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D12" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="E12" t="n">
-        <v>63.19</v>
+        <v>63.76</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7</v>
+        <v>-0.74</v>
       </c>
       <c r="G12" t="n">
         <v>0.09</v>
       </c>
       <c r="H12" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.69</v>
+        <v>0.1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="13">
@@ -1037,16 +1037,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D13" t="n">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="E13" t="n">
-        <v>55.29</v>
+        <v>55.37</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.27</v>
+        <v>-0.29</v>
       </c>
       <c r="G13" t="n">
         <v>0.09</v>
@@ -1055,16 +1055,16 @@
         <v>1.01</v>
       </c>
       <c r="I13" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="J13" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="K13" t="n">
         <v>0.09</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="14">
@@ -1075,13 +1075,13 @@
         <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D14" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E14" t="n">
-        <v>51.61</v>
+        <v>51.04</v>
       </c>
       <c r="F14" t="n">
         <v>-0.09</v>
@@ -1093,16 +1093,16 @@
         <v>1.02</v>
       </c>
       <c r="I14" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="J14" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="K14" t="n">
         <v>0.08</v>
       </c>
       <c r="L14" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="15">
@@ -1113,34 +1113,34 @@
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D15" t="n">
         <v>567</v>
       </c>
       <c r="E15" t="n">
-        <v>46.91</v>
+        <v>47.62</v>
       </c>
       <c r="F15" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="G15" t="n">
         <v>0.1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>1.69</v>
+        <v>0.96</v>
       </c>
       <c r="J15" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="K15" t="n">
         <v>0.04</v>
       </c>
       <c r="L15" t="n">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="16">
@@ -1151,34 +1151,34 @@
         <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D16" t="n">
         <v>485</v>
       </c>
       <c r="E16" t="n">
-        <v>40.62</v>
+        <v>42.47</v>
       </c>
       <c r="F16" t="n">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="G16" t="n">
         <v>0.1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>1.11</v>
+        <v>0.96</v>
       </c>
       <c r="J16" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L16" t="n">
-        <v>0.89</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="17">
@@ -1189,32 +1189,32 @@
         <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D17" t="n">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
-        <v>-0.31</v>
+        <v>-0.26</v>
       </c>
       <c r="G17" t="n">
         <v>0.05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.76</v>
+        <v>-1.16</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>0.56</v>
       </c>
       <c r="K17" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="L17" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="18">
@@ -1225,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="C18" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D18" t="n">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E18" t="n">
-        <v>39.38</v>
+        <v>39.64</v>
       </c>
       <c r="F18" t="n">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="G18" t="n">
         <v>0.09</v>
@@ -1243,16 +1243,16 @@
         <v>1.02</v>
       </c>
       <c r="I18" t="n">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
       <c r="J18" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="K18" t="n">
         <v>0.05</v>
       </c>
       <c r="L18" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="19">
@@ -1263,16 +1263,16 @@
         <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D19" t="n">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E19" t="n">
-        <v>37.21</v>
+        <v>37.46</v>
       </c>
       <c r="F19" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G19" t="n">
         <v>0.09</v>
@@ -1281,16 +1281,16 @@
         <v>1.05</v>
       </c>
       <c r="I19" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="J19" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="20">
@@ -1301,10 +1301,10 @@
         <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D20" t="n">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="n">
@@ -1314,19 +1314,19 @@
         <v>0.05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.67</v>
+        <v>-1.49</v>
       </c>
       <c r="J20" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="K20" t="n">
         <v>0.05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="21">
@@ -1337,25 +1337,25 @@
         <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D21" t="n">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E21" t="n">
-        <v>26.65</v>
+        <v>26.48</v>
       </c>
       <c r="F21" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G21" t="n">
         <v>0.1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.07</v>
+        <v>-1.17</v>
       </c>
       <c r="J21" t="n">
         <v>0.38</v>
@@ -1364,7 +1364,7 @@
         <v>0.04</v>
       </c>
       <c r="L21" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="22">
@@ -1375,16 +1375,16 @@
         <v>53</v>
       </c>
       <c r="C22" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D22" t="n">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E22" t="n">
-        <v>22.99</v>
+        <v>23.08</v>
       </c>
       <c r="F22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
         <v>0.1</v>
@@ -1402,7 +1402,7 @@
         <v>0.03</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
@@ -1456,19 +1456,19 @@
         <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>24332</v>
+        <v>24489</v>
       </c>
       <c r="E2" t="n">
-        <v>24390</v>
+        <v>24547</v>
       </c>
       <c r="F2" t="n">
-        <v>24554</v>
+        <v>24711</v>
       </c>
       <c r="G2" t="n">
-        <v>0.662</v>
+        <v>0.666</v>
       </c>
       <c r="H2" t="n">
-        <v>0.566</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="3">
@@ -1482,19 +1482,19 @@
         <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>24222</v>
+        <v>24385</v>
       </c>
       <c r="E3" t="n">
-        <v>24320</v>
+        <v>24483</v>
       </c>
       <c r="F3" t="n">
-        <v>24597</v>
+        <v>24760</v>
       </c>
       <c r="G3" t="n">
-        <v>0.676</v>
+        <v>0.679</v>
       </c>
       <c r="H3" t="n">
-        <v>0.571</v>
+        <v>0.576</v>
       </c>
     </row>
   </sheetData>
